--- a/src/assets/DATA/21-01-2022/BL/4.xlsx
+++ b/src/assets/DATA/21-01-2022/BL/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DATA\21-01-2022\BL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC366F11-D198-40B1-8336-F34F05B82D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9BA38-08B2-46DD-8025-C919986B0261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Total TTC</t>
   </si>
   <si>
-    <t>societé A</t>
-  </si>
-  <si>
     <t>ali</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>societé C</t>
   </si>
 </sst>
 </file>
@@ -469,16 +469,16 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -539,81 +539,81 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>98989898</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1">
         <v>44503</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
       </c>
       <c r="P2">
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -621,16 +621,16 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -641,16 +641,16 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
       </c>
       <c r="F5">
         <v>5</v>
